--- a/mosip_master/xlsx/loc_hierarchy_list.xlsx
+++ b/mosip_master/xlsx/loc_hierarchy_list.xlsx
@@ -297,8 +297,8 @@
   </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/mosip_master/xlsx/loc_hierarchy_list.xlsx
+++ b/mosip_master/xlsx/loc_hierarchy_list.xlsx
@@ -10,9 +10,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$19</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -23,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -46,12 +43,6 @@
     <t xml:space="preserve">TRUE</t>
   </si>
   <si>
-    <t xml:space="preserve">ara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">دولة</t>
-  </si>
-  <si>
     <t xml:space="preserve">fra</t>
   </si>
   <si>
@@ -61,37 +52,22 @@
     <t xml:space="preserve">Region</t>
   </si>
   <si>
-    <t xml:space="preserve">المناطق</t>
-  </si>
-  <si>
     <t xml:space="preserve">Région</t>
   </si>
   <si>
     <t xml:space="preserve">Province</t>
   </si>
   <si>
-    <t xml:space="preserve">المحافظة</t>
-  </si>
-  <si>
     <t xml:space="preserve">City</t>
   </si>
   <si>
-    <t xml:space="preserve">مدينة</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ville</t>
   </si>
   <si>
     <t xml:space="preserve">Zone</t>
   </si>
   <si>
-    <t xml:space="preserve">منطقة</t>
-  </si>
-  <si>
     <t xml:space="preserve">Postal Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رمز بريدي</t>
   </si>
   <si>
     <t xml:space="preserve">code postal</t>
@@ -185,7 +161,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -203,10 +179,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -222,30 +194,23 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -259,7 +224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -273,7 +238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -287,96 +252,96 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>14</v>
@@ -385,141 +350,55 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D19"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/loc_hierarchy_list.xlsx
+++ b/mosip_master/xlsx/loc_hierarchy_list.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -124,13 +124,16 @@
     <t xml:space="preserve">देश</t>
   </si>
   <si>
+    <t xml:space="preserve">क्षेत्रों</t>
+  </si>
+  <si>
+    <t xml:space="preserve">प्रांत</t>
+  </si>
+  <si>
+    <t xml:space="preserve">शहर</t>
+  </si>
+  <si>
     <t xml:space="preserve">क्षेत्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">प्रांत</t>
-  </si>
-  <si>
-    <t xml:space="preserve">शहर</t>
   </si>
   <si>
     <t xml:space="preserve">डाक कोड</t>
@@ -298,7 +301,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -723,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>6</v>
@@ -737,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>6</v>
@@ -745,13 +748,13 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>6</v>
@@ -759,13 +762,13 @@
     </row>
     <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>6</v>
@@ -773,13 +776,13 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>6</v>
@@ -787,13 +790,13 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>6</v>
@@ -801,13 +804,13 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="4" t="n">
         <v>4</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>6</v>
@@ -815,13 +818,13 @@
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4" t="n">
         <v>5</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>6</v>
@@ -831,7 +834,7 @@
   <autoFilter ref="A1:D19"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/mosip_master/xlsx/loc_hierarchy_list.xlsx
+++ b/mosip_master/xlsx/loc_hierarchy_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1091460\Downloads\mosip-data-1.2.0.1\mosip-data-1.2.0.1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1369D0B7-4EB5-4FE7-99F5-33935E330989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E03E66-120C-4100-A5A3-D8028384D5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,17 +129,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,138 +453,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" customWidth="1"/>
-    <col min="4" max="4" width="25.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.453125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4"/>
+      <c r="D2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5"/>
+      <c r="D3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5"/>
+      <c r="D4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5"/>
+      <c r="D5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5"/>
+      <c r="D6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D12"/>
+      <c r="D7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/mosip_master/xlsx/loc_hierarchy_list.xlsx
+++ b/mosip_master/xlsx/loc_hierarchy_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1091460\Downloads\mosip-data-1.2.0.1\mosip-data-1.2.0.1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E03E66-120C-4100-A5A3-D8028384D5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B9BDBC-2361-4987-B39D-9282B411DD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$19</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
   <si>
     <t>lang_code</t>
   </si>
@@ -57,10 +57,49 @@
     <t>Postal Code</t>
   </si>
   <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>Municipality</t>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>ara</t>
+  </si>
+  <si>
+    <t>دولة</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>Pays</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>المناطق</t>
+  </si>
+  <si>
+    <t>Région</t>
+  </si>
+  <si>
+    <t>المحافظة</t>
+  </si>
+  <si>
+    <t>مدينة</t>
+  </si>
+  <si>
+    <t>Ville</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>منطقة</t>
+  </si>
+  <si>
+    <t>رمز بريدي</t>
+  </si>
+  <si>
+    <t>code postal</t>
   </si>
 </sst>
 </file>
@@ -129,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -139,6 +178,7 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -483,94 +523,262 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="b">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="B18">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4"/>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/mosip_master/xlsx/loc_hierarchy_list.xlsx
+++ b/mosip_master/xlsx/loc_hierarchy_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1091460\Downloads\mosip-data-1.2.0.1\mosip-data-1.2.0.1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B9BDBC-2361-4987-B39D-9282B411DD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508F1AD4-C1F1-4312-A2E5-51812400AB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>lang_code</t>
   </si>
@@ -60,46 +60,10 @@
     <t>TRUE</t>
   </si>
   <si>
-    <t>ara</t>
-  </si>
-  <si>
-    <t>دولة</t>
-  </si>
-  <si>
-    <t>fra</t>
-  </si>
-  <si>
-    <t>Pays</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>المناطق</t>
-  </si>
-  <si>
-    <t>Région</t>
-  </si>
-  <si>
-    <t>المحافظة</t>
-  </si>
-  <si>
-    <t>مدينة</t>
-  </si>
-  <si>
-    <t>Ville</t>
-  </si>
-  <si>
-    <t>Zone</t>
-  </si>
-  <si>
-    <t>منطقة</t>
-  </si>
-  <si>
-    <t>رمز بريدي</t>
-  </si>
-  <si>
-    <t>code postal</t>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Municipality</t>
   </si>
 </sst>
 </file>
@@ -118,7 +82,7 @@
       <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="6"/>
@@ -496,7 +460,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,8 +493,8 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -539,13 +503,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
@@ -554,13 +518,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>9</v>
@@ -572,10 +536,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>9</v>
@@ -584,13 +548,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
@@ -599,13 +563,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
@@ -613,172 +577,73 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
